--- a/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
+++ b/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Session</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Domain Induction</t>
-  </si>
-  <si>
-    <t>About the product</t>
-  </si>
-  <si>
     <t>Admin Demo</t>
   </si>
   <si>
@@ -45,18 +36,59 @@
     <t>30 min</t>
   </si>
   <si>
-    <t>Technical Training</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Basic Biology</t>
+  </si>
+  <si>
+    <t>caGrid Induction</t>
+  </si>
+  <si>
+    <t>Product Demo</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>Overall architechture</t>
+  </si>
+  <si>
+    <t>Introduction to model</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,83 +413,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
         <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
+++ b/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Time</t>
   </si>
@@ -73,6 +73,51 @@
   </si>
   <si>
     <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Madhumita Shrikhande</t>
+  </si>
+  <si>
+    <t>Chandrakant Talele</t>
+  </si>
+  <si>
+    <t>Pooja Arora</t>
+  </si>
+  <si>
+    <t>SVN reporistory under docs/Induction</t>
+  </si>
+  <si>
+    <t>Introduction to concepts of biology, like gene, DNA etc</t>
+  </si>
+  <si>
+    <t>Demonstration of all the Admin module features</t>
+  </si>
+  <si>
+    <t>Demonstration of all the web application features</t>
+  </si>
+  <si>
+    <t>Demonstration of all the Desktop Application features</t>
+  </si>
+  <si>
+    <t>User Manual in SVN repository</t>
+  </si>
+  <si>
+    <t>Design and Archtechture Document in SVN repository</t>
+  </si>
+  <si>
+    <t>Concepts about caBIG, their objective, what is caGRID, how the data is stored etc</t>
+  </si>
+  <si>
+    <t>Explanation of the design and overall architechture of the entire application</t>
   </si>
 </sst>
 </file>
@@ -413,18 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -434,8 +481,17 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -445,8 +501,17 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,8 +521,14 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -467,8 +538,17 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -478,8 +558,17 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -489,8 +578,17 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -500,8 +598,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -511,8 +618,14 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -521,6 +634,9 @@
       </c>
       <c r="C9" t="s">
         <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
+++ b/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Overall architechture</t>
   </si>
   <si>
-    <t>Introduction to model</t>
-  </si>
-  <si>
     <t>3 hr</t>
   </si>
   <si>
@@ -118,6 +115,15 @@
   </si>
   <si>
     <t>Explanation of the design and overall architechture of the entire application</t>
+  </si>
+  <si>
+    <t>Introduction to modules</t>
+  </si>
+  <si>
+    <t>High Level description of all the modules and the detailed discussion of the module that the person would start working on</t>
+  </si>
+  <si>
+    <t>caGrid Wiki, caGrid gforge</t>
   </si>
 </sst>
 </file>
@@ -161,9 +167,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,13 +473,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,17 +493,17 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -501,17 +513,17 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -521,11 +533,14 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -538,17 +553,17 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -558,14 +573,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,51 +593,54 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -636,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
+++ b/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="13215" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="11910" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:F25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Time</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Pooja Arora</t>
   </si>
   <si>
-    <t>SVN reporistory under docs/Induction</t>
-  </si>
-  <si>
     <t>Introduction to concepts of biology, like gene, DNA etc</t>
   </si>
   <si>
@@ -105,15 +103,6 @@
     <t>Demonstration of all the Desktop Application features</t>
   </si>
   <si>
-    <t>User Manual in SVN repository</t>
-  </si>
-  <si>
-    <t>Design and Archtechture Document in SVN repository</t>
-  </si>
-  <si>
-    <t>Concepts about caBIG, their objective, what is caGRID, how the data is stored etc</t>
-  </si>
-  <si>
     <t>Explanation of the design and overall architechture of the entire application</t>
   </si>
   <si>
@@ -123,14 +112,97 @@
     <t>High Level description of all the modules and the detailed discussion of the module that the person would start working on</t>
   </si>
   <si>
-    <t>caGrid Wiki, caGrid gforge</t>
+    <t>General Biology</t>
+  </si>
+  <si>
+    <t>Replication process</t>
+  </si>
+  <si>
+    <t>Transcription Process</t>
+  </si>
+  <si>
+    <t>Translation process</t>
+  </si>
+  <si>
+    <t>Term definitions</t>
+  </si>
+  <si>
+    <t>Use of Biology in projects</t>
+  </si>
+  <si>
+    <t>SVN reporistory : docs/Induction/Basic Biology</t>
+  </si>
+  <si>
+    <t>Intoduction to caGrid</t>
+  </si>
+  <si>
+    <t>caBIG introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCI and NCICB </t>
+  </si>
+  <si>
+    <t>SVN reporistory : docs/UserManual</t>
+  </si>
+  <si>
+    <t>Introduction to features</t>
+  </si>
+  <si>
+    <t>High level overview of the various features available in all the modules</t>
+  </si>
+  <si>
+    <t>SVN reporistory : docs/Induction/caB2B Overview Slides</t>
+  </si>
+  <si>
+    <t>http://cagrid.org/pages/viewpage.action?pageId=4981006</t>
+  </si>
+  <si>
+    <t>https://cabig.nci.nih.gov/</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/</t>
+  </si>
+  <si>
+    <t>caDSR, Index Service, FQP etc</t>
+  </si>
+  <si>
+    <t>CQL and DCQL</t>
+  </si>
+  <si>
+    <t>http://cagrid.org/display/dataservices/CQL, http://cagrid.org/display/fqp/DCQL</t>
+  </si>
+  <si>
+    <t>Code walk thourgh of the caB2B server</t>
+  </si>
+  <si>
+    <t>Code walk thourgh of the caB2B admin module</t>
+  </si>
+  <si>
+    <t>Code walk thourgh of the caB2B client</t>
+  </si>
+  <si>
+    <t>Code walk thourgh of the caB2B web application</t>
+  </si>
+  <si>
+    <t>SVN reporistory : \docs\Design Document\ArchictureDocuments</t>
+  </si>
+  <si>
+    <t>SVN reporistory : \docs\Design Document</t>
+  </si>
+  <si>
+    <t>Discussion of any issues</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/NCICB/infrastructure/cacore_overview/cadsr, 
+https://cabig-kc.nci.nih.gov/CaGrid/KC/index.php/IndexService, 
+http://cagrid.org/display/fqp/Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +218,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,17 +261,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -182,6 +338,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -478,184 +639,369 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="F20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
+++ b/dev_11Jun2009/docs/Induction/Induction Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="11910" windowHeight="4950"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="13215" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:F25"/>
 </workbook>
 </file>
 
